--- a/01 Administración de proyecto/01.2 Seguimiento/IdiomasITSZN_ControlRiesgos_v01.xlsx
+++ b/01 Administración de proyecto/01.2 Seguimiento/IdiomasITSZN_ControlRiesgos_v01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Dropbox\ISO 29110\Repositorios\RepCentroIdiomasITSZN\02 Seguimiento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\GitHub\IdiomasITSZN\01 Administración de proyecto\01.2 Seguimiento\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t># Riesgo</t>
   </si>
@@ -135,6 +135,27 @@
   <si>
     <t>CONTROL DE RIESGOS
 Gestor Centro de Idiomas</t>
+  </si>
+  <si>
+    <t>Debido a que el proyecto requiere tablas y reportes, existe el riesgo de que la información esté desordenada.</t>
+  </si>
+  <si>
+    <t>Debido a la diferencia entre horarios del cliente y los integrantes de equipo, existe el riesgo  de que se entorpezca el avance del proyecto</t>
+  </si>
+  <si>
+    <t>Debido a que el proyecto debe cumplir el estandar ISO 29110, puede sobrecargar de trabajo la generación de productos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puesto que el cliente es un puesto interno del ITSZN, puede ocurrir una rotación de personal de dicho cliente. </t>
+  </si>
+  <si>
+    <t>Puesto que el proyecto es de naturaleza interna y no cuenta con presupuesto, puede ocurrir que se restrinja el apoyo para adquirir nuevo equipo o capacitaciones.</t>
+  </si>
+  <si>
+    <t>Debido a que el software se instalará en hardware existente, puede que éste no tenga las características para ofrecer el rendimiento deseable del sistema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debido a que en el desarrollo del software estarán colaborando estudiantes, puede ocurrir que no se cuente con la capacitación adecuada de dicho personal. </t>
   </si>
 </sst>
 </file>
@@ -335,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -389,10 +410,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -812,14 +836,14 @@
   </sheetPr>
   <dimension ref="A4:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="58.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="5.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="41.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="46.28515625" style="1" customWidth="1"/>
@@ -843,10 +867,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="21"/>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -878,16 +902,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
-        <v>1</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="10">
+        <v>4</v>
+      </c>
+      <c r="D11" s="10">
+        <v>3</v>
+      </c>
       <c r="E11" s="10">
         <f>D11*C11</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
@@ -897,16 +927,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
-        <v>2</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+        <v>3</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="12">
+        <v>3</v>
+      </c>
+      <c r="D12" s="12">
+        <v>3</v>
+      </c>
       <c r="E12" s="10">
-        <f t="shared" ref="E12:E16" si="0">D12*C12</f>
-        <v>0</v>
+        <f>D12*C12</f>
+        <v>9</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
@@ -916,16 +952,22 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
-        <v>3</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+        <v>4</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="12">
+        <v>2</v>
+      </c>
+      <c r="D13" s="12">
+        <v>2</v>
+      </c>
       <c r="E13" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D13*C13</f>
+        <v>4</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
@@ -935,64 +977,88 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
+        <v>6</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="12">
+        <v>2</v>
+      </c>
+      <c r="D14" s="12">
+        <v>2</v>
+      </c>
+      <c r="E14" s="10">
+        <f>D14*C14</f>
         <v>4</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="H14" s="5"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
-        <v>5</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="12">
+        <v>2</v>
+      </c>
+      <c r="D15" s="12">
+        <v>2</v>
+      </c>
       <c r="E15" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D15*C15</f>
+        <v>4</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="5"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
-        <v>6</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+        <v>5</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="12">
+        <v>1</v>
+      </c>
+      <c r="D16" s="12">
+        <v>3</v>
+      </c>
       <c r="E16" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D16*C16</f>
+        <v>3</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="5"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
-        <v>7</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10">
+        <v>2</v>
+      </c>
       <c r="E17" s="10">
         <f>D17*C17</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -1007,7 +1073,7 @@
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="10">
-        <f t="shared" ref="E18:E22" si="1">D18*C18</f>
+        <f>D18*C18</f>
         <v>0</v>
       </c>
       <c r="F18" s="19"/>
@@ -1023,7 +1089,7 @@
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="10">
-        <f t="shared" si="1"/>
+        <f>D19*C19</f>
         <v>0</v>
       </c>
       <c r="F19" s="19"/>
@@ -1039,7 +1105,7 @@
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="10">
-        <f t="shared" si="1"/>
+        <f>D20*C20</f>
         <v>0</v>
       </c>
       <c r="F20" s="19"/>
@@ -1053,7 +1119,7 @@
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="10">
-        <f t="shared" si="1"/>
+        <f>D21*C21</f>
         <v>0</v>
       </c>
       <c r="F21" s="19"/>
@@ -1067,7 +1133,7 @@
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="10">
-        <f t="shared" si="1"/>
+        <f>D22*C22</f>
         <v>0</v>
       </c>
       <c r="F22" s="19"/>
@@ -1076,11 +1142,15 @@
       <c r="I22" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A10:I10"/>
+  <autoFilter ref="A10:I10">
+    <sortState ref="A11:I22">
+      <sortCondition descending="1" ref="E10"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A7:B7"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:I22">
       <formula1>$L$11:$L$13</formula1>
     </dataValidation>

--- a/01 Administración de proyecto/01.2 Seguimiento/IdiomasITSZN_ControlRiesgos_v01.xlsx
+++ b/01 Administración de proyecto/01.2 Seguimiento/IdiomasITSZN_ControlRiesgos_v01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\GitHub\IdiomasITSZN\01 Administración de proyecto\01.2 Seguimiento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\GitHub Repositories\IdiomasITSZN\01 Administración de proyecto\01.2 Seguimiento\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t># Riesgo</t>
   </si>
@@ -156,6 +156,21 @@
   </si>
   <si>
     <t xml:space="preserve">Debido a que en el desarrollo del software estarán colaborando estudiantes, puede ocurrir que no se cuente con la capacitación adecuada de dicho personal. </t>
+  </si>
+  <si>
+    <t>Que otros integrantes con disponibilidad de horario se encargen de realizar la revisión del sprint</t>
+  </si>
+  <si>
+    <t>Avisar con 1 o 2 dias de antelación sobre la revisión de sprint a los involucrados</t>
+  </si>
+  <si>
+    <t>Proporcionar ejemplo y tutoriales sobre la nueva tecnología</t>
+  </si>
+  <si>
+    <t>Repartir actividades complejas de seguimiento de proyectos e implementación de software</t>
+  </si>
+  <si>
+    <t>Que otros integrantes con disponibilidad apoyen en las actividades de documentación de pruebas, con el visto bueno del lider técnico</t>
   </si>
 </sst>
 </file>
@@ -356,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -409,14 +424,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -836,14 +854,14 @@
   </sheetPr>
   <dimension ref="A4:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="58.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.140625" style="20" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="5.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="41.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="46.28515625" style="1" customWidth="1"/>
@@ -867,10 +885,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="22"/>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -916,13 +934,21 @@
         <v>3</v>
       </c>
       <c r="E11" s="10">
-        <f>D11*C11</f>
+        <f t="shared" ref="E11:E22" si="0">D11*C11</f>
         <v>12</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6"/>
+      <c r="F11" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="5">
+        <v>43172</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="L11" s="1" t="s">
         <v>10</v>
       </c>
@@ -941,13 +967,19 @@
         <v>3</v>
       </c>
       <c r="E12" s="10">
-        <f>D12*C12</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="G12" s="19"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
+      <c r="H12" s="5">
+        <v>43172</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="L12" s="1" t="s">
         <v>26</v>
       </c>
@@ -966,13 +998,21 @@
         <v>2</v>
       </c>
       <c r="E13" s="10">
-        <f>D13*C13</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
+      <c r="F13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="5">
+        <v>43172</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="L13" s="1" t="s">
         <v>27</v>
       </c>
@@ -991,13 +1031,17 @@
         <v>2</v>
       </c>
       <c r="E14" s="10">
-        <f>D14*C14</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
+      <c r="H14" s="5">
+        <v>43172</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
@@ -1013,7 +1057,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="10">
-        <f>D15*C15</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F15" s="19"/>
@@ -1035,7 +1079,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="10">
-        <f>D16*C16</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F16" s="19"/>
@@ -1057,7 +1101,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="10">
-        <f>D17*C17</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F17" s="18"/>
@@ -1073,7 +1117,7 @@
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="10">
-        <f>D18*C18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F18" s="19"/>
@@ -1089,7 +1133,7 @@
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="10">
-        <f>D19*C19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F19" s="19"/>
@@ -1105,7 +1149,7 @@
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="10">
-        <f>D20*C20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F20" s="19"/>
@@ -1119,7 +1163,7 @@
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="10">
-        <f>D21*C21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F21" s="19"/>
@@ -1133,7 +1177,7 @@
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="10">
-        <f>D22*C22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F22" s="19"/>
@@ -1150,7 +1194,7 @@
   <mergeCells count="1">
     <mergeCell ref="A7:B7"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:I22">
       <formula1>$L$11:$L$13</formula1>
     </dataValidation>
